--- a/biorefineries/wwt/data/RIN_D3_price.xlsx
+++ b/biorefineries/wwt/data/RIN_D3_price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yalinli_cabbi/Coding/bp/biorefineries/wwt/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yalin\Documents\Coding\Bioindustrial-Park\biorefineries\wwt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54CDA51-794B-884E-ADDE-AA25D2C5FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77DD83-47E1-4C3D-90B5-EB9DA457AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3400" windowWidth="26420" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="2400" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RIN_D3_price" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={51D4FABD-9F00-441A-836A-98AE0684D1E7}</author>
+  </authors>
+  <commentList>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{51D4FABD-9F00-441A-836A-98AE0684D1E7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    0.599 gal/kg*1/0.04544 kg/mcf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="27">
   <si>
     <t>Transfer Date by Week</t>
   </si>
@@ -92,16 +110,28 @@
     <t>100th</t>
   </si>
   <si>
-    <t>RIN</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
     <t>natural gas price ($/mcf): https://www.eia.gov/dnav/ng/hist/n3050us3a.htm (accessed 10/11/2022)</t>
   </si>
   <si>
     <t>RIN price ($/ethanol-eq): https://www.epa.gov/fuels-registration-reporting-and-compliance-help/rin-trades-and-price-information (accessed 6/2/2022)</t>
+  </si>
+  <si>
+    <t>RIN ($/gal)</t>
+  </si>
+  <si>
+    <t>natural gas ($/mcf)</t>
+  </si>
+  <si>
+    <t>natural gas ($/gal)</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -110,7 +140,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -429,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -544,6 +574,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -589,12 +699,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -651,6 +770,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Yalin" id="{584F5FDF-96FF-4D00-8D77-0B152281502D}" userId="bfca01abaf64aab7" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,23 +1067,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M3" dT="2023-01-28T19:25:56.05" personId="{584F5FDF-96FF-4D00-8D77-0B152281502D}" id="{51D4FABD-9F00-441A-836A-98AE0684D1E7}">
+    <text>0.599 gal/kg*1/0.04544 kg/mcf</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M807"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="K227" sqref="K227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,10 +1118,10 @@
         <v>1.8429900744416856</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42009</v>
       </c>
@@ -1014,10 +1147,10 @@
         <v>1.382242556</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42030</v>
       </c>
@@ -1043,13 +1176,16 @@
         <v>2.3037375930000001</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42051</v>
       </c>
@@ -1078,12 +1214,16 @@
       <c r="L4" s="2">
         <v>4.26</v>
       </c>
-      <c r="M4" s="4">
-        <f>K4*0.599*1/0.04544/L4</f>
+      <c r="M4" s="2">
+        <f>K4*0.599*1/0.04544</f>
+        <v>11.907401344039846</v>
+      </c>
+      <c r="N4" s="4">
+        <f>M4/L4</f>
         <v>2.7951646347511376</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42058</v>
       </c>
@@ -1119,12 +1259,16 @@
       <c r="L5" s="2">
         <v>3.71</v>
       </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5:M10" si="0">K5*0.599*1/0.04544/L5</f>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M10" si="0">K5*0.599*1/0.04544</f>
+        <v>20.380815707180144</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N10" si="1">M5/L5</f>
         <v>5.4934813226900658</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42065</v>
       </c>
@@ -1160,12 +1304,16 @@
       <c r="L6" s="2">
         <v>4.16</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <f t="shared" si="0"/>
+        <v>32.395014926515593</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
         <v>7.7872632034893252</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42065</v>
       </c>
@@ -1201,12 +1349,16 @@
       <c r="L7" s="2">
         <v>4.2300000000000004</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2">
         <f t="shared" si="0"/>
+        <v>30.915711131010191</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
         <v>7.3086787543759311</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42065</v>
       </c>
@@ -1242,12 +1394,16 @@
       <c r="L8" s="2">
         <v>3.81</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <f t="shared" si="0"/>
+        <v>17.613366068808684</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
         <v>4.6229307267214397</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42072</v>
       </c>
@@ -1283,12 +1439,16 @@
       <c r="L9" s="2">
         <v>3.43</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <f t="shared" si="0"/>
+        <v>17.396309859154925</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>5.0718104545641181</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42072</v>
       </c>
@@ -1324,12 +1484,16 @@
       <c r="L10" s="2">
         <v>6.02</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <f t="shared" si="0"/>
+        <v>34.989081777486632</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
         <v>5.8121398301472817</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42086</v>
       </c>
@@ -1355,10 +1519,27 @@
         <f>_xlfn.PERCENTILE.INC(F:F, 0.9)</f>
         <v>2.77</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="6">
+        <f>AVERAGE(K4:K10)</f>
+        <v>1.7946004113992531</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" ref="L11:N11" si="2">AVERAGE(L4:L10)</f>
+        <v>4.2314285714285713</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
+        <v>23.656814402028004</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="2"/>
+        <v>5.5559241323913282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42086</v>
       </c>
@@ -1384,10 +1565,27 @@
         <f>_xlfn.PERCENTILE.INC(F:F, 0.95)</f>
         <v>2.95</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="9">
+        <f>MIN(K4:K10)</f>
+        <v>0.90329268292682918</v>
+      </c>
+      <c r="L12" s="9">
+        <f>MIN(L4:L10)</f>
+        <v>3.43</v>
+      </c>
+      <c r="M12" s="9">
+        <f>MIN(M4:M10)</f>
+        <v>11.907401344039846</v>
+      </c>
+      <c r="N12" s="10">
+        <f>MIN(N4:N10)</f>
+        <v>2.7951646347511376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42093</v>
       </c>
@@ -1413,10 +1611,27 @@
         <f>_xlfn.PERCENTILE.INC(F:F, 1)</f>
         <v>3.46</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="12">
+        <f>MAX(K4:K10)</f>
+        <v>2.6542635658914735</v>
+      </c>
+      <c r="L13" s="12">
+        <f>MAX(L4:L10)</f>
+        <v>6.02</v>
+      </c>
+      <c r="M13" s="12">
+        <f>MAX(M4:M10)</f>
+        <v>34.989081777486632</v>
+      </c>
+      <c r="N13" s="13">
+        <f>MAX(N4:N10)</f>
+        <v>7.7872632034893252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42093</v>
       </c>
@@ -1438,7 +1653,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42100</v>
       </c>
@@ -1460,7 +1675,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42107</v>
       </c>
@@ -1482,7 +1697,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42114</v>
       </c>
@@ -1504,7 +1719,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42114</v>
       </c>
@@ -1526,7 +1741,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42114</v>
       </c>
@@ -1548,7 +1763,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42135</v>
       </c>
@@ -1570,7 +1785,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42142</v>
       </c>
@@ -1592,7 +1807,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42142</v>
       </c>
@@ -1614,7 +1829,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42149</v>
       </c>
@@ -1636,7 +1851,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42149</v>
       </c>
@@ -1658,7 +1873,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42156</v>
       </c>
@@ -1680,7 +1895,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42163</v>
       </c>
@@ -1702,7 +1917,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42163</v>
       </c>
@@ -1724,7 +1939,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>42170</v>
       </c>
@@ -1746,7 +1961,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>42177</v>
       </c>
@@ -1768,7 +1983,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>42177</v>
       </c>
@@ -1790,7 +2005,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42177</v>
       </c>
@@ -1812,7 +2027,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>42184</v>
       </c>
@@ -1834,7 +2049,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42191</v>
       </c>
@@ -1856,7 +2071,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>42191</v>
       </c>
@@ -1878,7 +2093,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42198</v>
       </c>
@@ -1900,7 +2115,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>42198</v>
       </c>
@@ -1922,7 +2137,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>42205</v>
       </c>
@@ -1944,7 +2159,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>42205</v>
       </c>
@@ -1966,7 +2181,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>42205</v>
       </c>
@@ -1988,7 +2203,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>42212</v>
       </c>
@@ -2010,7 +2225,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>42212</v>
       </c>
@@ -2032,7 +2247,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42219</v>
       </c>
@@ -2054,7 +2269,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42226</v>
       </c>
@@ -2076,7 +2291,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42233</v>
       </c>
@@ -2098,7 +2313,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>42240</v>
       </c>
@@ -2120,7 +2335,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42240</v>
       </c>
@@ -2142,7 +2357,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42247</v>
       </c>
@@ -2164,7 +2379,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>42254</v>
       </c>
@@ -2186,7 +2401,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>42261</v>
       </c>
@@ -2208,7 +2423,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42261</v>
       </c>
@@ -2230,7 +2445,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>42268</v>
       </c>
@@ -2252,7 +2467,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42268</v>
       </c>
@@ -2274,7 +2489,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42275</v>
       </c>
@@ -2296,7 +2511,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42275</v>
       </c>
@@ -2318,7 +2533,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>42282</v>
       </c>
@@ -2340,7 +2555,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>42289</v>
       </c>
@@ -2362,7 +2577,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>42289</v>
       </c>
@@ -2384,7 +2599,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42289</v>
       </c>
@@ -2406,7 +2621,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42289</v>
       </c>
@@ -2428,7 +2643,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42296</v>
       </c>
@@ -2450,7 +2665,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>42303</v>
       </c>
@@ -2472,7 +2687,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>42303</v>
       </c>
@@ -2494,7 +2709,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>42303</v>
       </c>
@@ -2516,7 +2731,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>42317</v>
       </c>
@@ -2538,7 +2753,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>42317</v>
       </c>
@@ -2560,7 +2775,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>42317</v>
       </c>
@@ -2582,7 +2797,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>42324</v>
       </c>
@@ -2604,7 +2819,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>42324</v>
       </c>
@@ -2626,7 +2841,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>42324</v>
       </c>
@@ -2648,7 +2863,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>42331</v>
       </c>
@@ -2670,7 +2885,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>42331</v>
       </c>
@@ -2692,7 +2907,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>42338</v>
       </c>
@@ -2714,7 +2929,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>42338</v>
       </c>
@@ -2736,7 +2951,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>42345</v>
       </c>
@@ -2758,7 +2973,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>42345</v>
       </c>
@@ -2780,7 +2995,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>42352</v>
       </c>
@@ -2802,7 +3017,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>42352</v>
       </c>
@@ -2824,7 +3039,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>42352</v>
       </c>
@@ -2846,7 +3061,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>42359</v>
       </c>
@@ -2868,7 +3083,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>42359</v>
       </c>
@@ -2890,7 +3105,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42366</v>
       </c>
@@ -2912,7 +3127,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42366</v>
       </c>
@@ -2934,7 +3149,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42366</v>
       </c>
@@ -2956,7 +3171,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42373</v>
       </c>
@@ -2978,7 +3193,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>42373</v>
       </c>
@@ -3000,7 +3215,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42380</v>
       </c>
@@ -3022,7 +3237,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42380</v>
       </c>
@@ -3044,7 +3259,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42380</v>
       </c>
@@ -3066,7 +3281,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42387</v>
       </c>
@@ -3088,7 +3303,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42387</v>
       </c>
@@ -3110,7 +3325,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42387</v>
       </c>
@@ -3132,7 +3347,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42394</v>
       </c>
@@ -3154,7 +3369,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42394</v>
       </c>
@@ -3176,7 +3391,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42394</v>
       </c>
@@ -3198,7 +3413,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42401</v>
       </c>
@@ -3220,7 +3435,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42401</v>
       </c>
@@ -3242,7 +3457,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42408</v>
       </c>
@@ -3264,7 +3479,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42408</v>
       </c>
@@ -3286,7 +3501,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42415</v>
       </c>
@@ -3308,7 +3523,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42415</v>
       </c>
@@ -3330,7 +3545,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42415</v>
       </c>
@@ -3352,7 +3567,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42415</v>
       </c>
@@ -3374,7 +3589,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42422</v>
       </c>
@@ -3396,7 +3611,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42422</v>
       </c>
@@ -3418,7 +3633,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42422</v>
       </c>
@@ -3440,7 +3655,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42422</v>
       </c>
@@ -3462,7 +3677,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42422</v>
       </c>
@@ -3484,7 +3699,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42422</v>
       </c>
@@ -3506,7 +3721,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42429</v>
       </c>
@@ -3528,7 +3743,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42429</v>
       </c>
@@ -3550,7 +3765,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42436</v>
       </c>
@@ -3572,7 +3787,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42436</v>
       </c>
@@ -3594,7 +3809,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42436</v>
       </c>
@@ -3616,7 +3831,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42443</v>
       </c>
@@ -3638,7 +3853,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42443</v>
       </c>
@@ -3660,7 +3875,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42443</v>
       </c>
@@ -3682,7 +3897,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42450</v>
       </c>
@@ -3704,7 +3919,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42457</v>
       </c>
@@ -3726,7 +3941,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42457</v>
       </c>
@@ -3748,7 +3963,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42457</v>
       </c>
@@ -3770,7 +3985,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42457</v>
       </c>
@@ -3792,7 +4007,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42457</v>
       </c>
@@ -3814,7 +4029,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42464</v>
       </c>
@@ -3836,7 +4051,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>42464</v>
       </c>
@@ -3858,7 +4073,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>42471</v>
       </c>
@@ -3880,7 +4095,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>42471</v>
       </c>
@@ -3902,7 +4117,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>42471</v>
       </c>
@@ -3924,7 +4139,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>42478</v>
       </c>
@@ -3946,7 +4161,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>42478</v>
       </c>
@@ -3968,7 +4183,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>42478</v>
       </c>
@@ -3990,7 +4205,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>42485</v>
       </c>
@@ -4012,7 +4227,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>42485</v>
       </c>
@@ -4034,7 +4249,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>42485</v>
       </c>
@@ -4056,7 +4271,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>42485</v>
       </c>
@@ -4078,7 +4293,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>42492</v>
       </c>
@@ -4100,7 +4315,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>42492</v>
       </c>
@@ -4122,7 +4337,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>42492</v>
       </c>
@@ -4144,7 +4359,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>42499</v>
       </c>
@@ -4166,7 +4381,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>42499</v>
       </c>
@@ -4188,7 +4403,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>42506</v>
       </c>
@@ -4210,7 +4425,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>42506</v>
       </c>
@@ -4232,7 +4447,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>42506</v>
       </c>
@@ -4254,7 +4469,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>42506</v>
       </c>
@@ -4276,7 +4491,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>42513</v>
       </c>
@@ -4298,7 +4513,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>42513</v>
       </c>
@@ -4320,7 +4535,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>42513</v>
       </c>
@@ -4342,7 +4557,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>42513</v>
       </c>
@@ -4364,7 +4579,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>42520</v>
       </c>
@@ -4386,7 +4601,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>42520</v>
       </c>
@@ -4408,7 +4623,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>42527</v>
       </c>
@@ -4430,7 +4645,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>42527</v>
       </c>
@@ -4452,7 +4667,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>42534</v>
       </c>
@@ -4474,7 +4689,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>42534</v>
       </c>
@@ -4496,7 +4711,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>42534</v>
       </c>
@@ -4518,7 +4733,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>42541</v>
       </c>
@@ -4540,7 +4755,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>42541</v>
       </c>
@@ -4562,7 +4777,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>42548</v>
       </c>
@@ -4584,7 +4799,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>42548</v>
       </c>
@@ -4606,7 +4821,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>42548</v>
       </c>
@@ -4628,7 +4843,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>42548</v>
       </c>
@@ -4650,7 +4865,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>42555</v>
       </c>
@@ -4672,7 +4887,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>42555</v>
       </c>
@@ -4694,7 +4909,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>42555</v>
       </c>
@@ -4716,7 +4931,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>42555</v>
       </c>
@@ -4738,7 +4953,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>42562</v>
       </c>
@@ -4760,7 +4975,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>42562</v>
       </c>
@@ -4782,7 +4997,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>42562</v>
       </c>
@@ -4804,7 +5019,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>42562</v>
       </c>
@@ -4826,7 +5041,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>42569</v>
       </c>
@@ -4848,7 +5063,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>42569</v>
       </c>
@@ -4870,7 +5085,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>42569</v>
       </c>
@@ -4892,7 +5107,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>42569</v>
       </c>
@@ -4914,7 +5129,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>42569</v>
       </c>
@@ -4936,7 +5151,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>42576</v>
       </c>
@@ -4958,7 +5173,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>42576</v>
       </c>
@@ -4980,7 +5195,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>42576</v>
       </c>
@@ -5002,7 +5217,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>42583</v>
       </c>
@@ -5024,7 +5239,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>42590</v>
       </c>
@@ -5046,7 +5261,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>42590</v>
       </c>
@@ -5068,7 +5283,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>42597</v>
       </c>
@@ -5090,7 +5305,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>42604</v>
       </c>
@@ -5112,7 +5327,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>42604</v>
       </c>
@@ -5134,7 +5349,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>42611</v>
       </c>
@@ -5156,7 +5371,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>42611</v>
       </c>
@@ -5178,7 +5393,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>42611</v>
       </c>
@@ -5200,7 +5415,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>42618</v>
       </c>
@@ -5222,7 +5437,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>42625</v>
       </c>
@@ -5244,7 +5459,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>42625</v>
       </c>
@@ -5266,7 +5481,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>42625</v>
       </c>
@@ -5288,7 +5503,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>42632</v>
       </c>
@@ -5310,7 +5525,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>42632</v>
       </c>
@@ -5332,7 +5547,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>42639</v>
       </c>
@@ -5354,7 +5569,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>42639</v>
       </c>
@@ -5376,7 +5591,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>42639</v>
       </c>
@@ -5398,7 +5613,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>42639</v>
       </c>
@@ -5420,7 +5635,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>42639</v>
       </c>
@@ -5442,7 +5657,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>42646</v>
       </c>
@@ -5464,7 +5679,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>42653</v>
       </c>
@@ -5486,7 +5701,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>42660</v>
       </c>
@@ -5508,7 +5723,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>42660</v>
       </c>
@@ -5530,7 +5745,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>42660</v>
       </c>
@@ -5552,7 +5767,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>42667</v>
       </c>
@@ -5574,7 +5789,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>42667</v>
       </c>
@@ -5596,7 +5811,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>42667</v>
       </c>
@@ -5618,7 +5833,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>42667</v>
       </c>
@@ -5640,7 +5855,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>42674</v>
       </c>
@@ -5662,7 +5877,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>42674</v>
       </c>
@@ -5684,7 +5899,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>42681</v>
       </c>
@@ -5706,7 +5921,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>42688</v>
       </c>
@@ -5728,7 +5943,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>42688</v>
       </c>
@@ -5750,7 +5965,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>42688</v>
       </c>
@@ -5772,7 +5987,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>42695</v>
       </c>
@@ -5794,7 +6009,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>42695</v>
       </c>
@@ -5816,7 +6031,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>42695</v>
       </c>
@@ -5838,7 +6053,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>42695</v>
       </c>
@@ -5860,7 +6075,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>42702</v>
       </c>
@@ -5882,7 +6097,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>42702</v>
       </c>
@@ -5904,7 +6119,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>42702</v>
       </c>
@@ -5926,7 +6141,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>42709</v>
       </c>
@@ -5948,7 +6163,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>42709</v>
       </c>
@@ -5970,7 +6185,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>42716</v>
       </c>
@@ -5992,7 +6207,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>42716</v>
       </c>
@@ -6014,7 +6229,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>42723</v>
       </c>
@@ -6036,7 +6251,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>42723</v>
       </c>
@@ -6058,7 +6273,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>42730</v>
       </c>
@@ -6080,7 +6295,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>42730</v>
       </c>
@@ -6102,7 +6317,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>42737</v>
       </c>
@@ -6124,7 +6339,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>42737</v>
       </c>
@@ -6146,7 +6361,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>42744</v>
       </c>
@@ -6168,7 +6383,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>42744</v>
       </c>
@@ -6190,7 +6405,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>42751</v>
       </c>
@@ -6212,7 +6427,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>42758</v>
       </c>
@@ -6234,7 +6449,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>42758</v>
       </c>
@@ -6256,7 +6471,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>42765</v>
       </c>
@@ -6278,7 +6493,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>42772</v>
       </c>
@@ -6300,7 +6515,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>42772</v>
       </c>
@@ -6322,7 +6537,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>42772</v>
       </c>
@@ -6344,7 +6559,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>42779</v>
       </c>
@@ -6366,7 +6581,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>42779</v>
       </c>
@@ -6388,7 +6603,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>42786</v>
       </c>
@@ -6410,7 +6625,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>42786</v>
       </c>
@@ -6432,7 +6647,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>42786</v>
       </c>
@@ -6454,7 +6669,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>42793</v>
       </c>
@@ -6476,7 +6691,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>42793</v>
       </c>
@@ -6498,7 +6713,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>42793</v>
       </c>
@@ -6520,7 +6735,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>42793</v>
       </c>
@@ -6542,7 +6757,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>42800</v>
       </c>
@@ -6564,7 +6779,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>42800</v>
       </c>
@@ -6586,7 +6801,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>42807</v>
       </c>
@@ -6608,7 +6823,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>42807</v>
       </c>
@@ -6630,7 +6845,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>42807</v>
       </c>
@@ -6652,7 +6867,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>42807</v>
       </c>
@@ -6674,7 +6889,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>42814</v>
       </c>
@@ -6696,7 +6911,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>42814</v>
       </c>
@@ -6718,7 +6933,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>42814</v>
       </c>
@@ -6740,7 +6955,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>42814</v>
       </c>
@@ -6762,7 +6977,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>42821</v>
       </c>
@@ -6784,7 +6999,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>42821</v>
       </c>
@@ -6806,7 +7021,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>42821</v>
       </c>
@@ -6828,7 +7043,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>42821</v>
       </c>
@@ -6850,7 +7065,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>42821</v>
       </c>
@@ -6872,7 +7087,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>42828</v>
       </c>
@@ -6894,7 +7109,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>42828</v>
       </c>
@@ -6916,7 +7131,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>42835</v>
       </c>
@@ -6938,7 +7153,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>42835</v>
       </c>
@@ -6960,7 +7175,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>42842</v>
       </c>
@@ -6982,7 +7197,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>42849</v>
       </c>
@@ -7004,7 +7219,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>42849</v>
       </c>
@@ -7026,7 +7241,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>42849</v>
       </c>
@@ -7048,7 +7263,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>42849</v>
       </c>
@@ -7070,7 +7285,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>42856</v>
       </c>
@@ -7092,7 +7307,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>42856</v>
       </c>
@@ -7114,7 +7329,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>42863</v>
       </c>
@@ -7136,7 +7351,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>42863</v>
       </c>
@@ -7158,7 +7373,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>42863</v>
       </c>
@@ -7180,7 +7395,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>42870</v>
       </c>
@@ -7202,7 +7417,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>42870</v>
       </c>
@@ -7224,7 +7439,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>42877</v>
       </c>
@@ -7246,7 +7461,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>42884</v>
       </c>
@@ -7268,7 +7483,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>42884</v>
       </c>
@@ -7290,7 +7505,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>42884</v>
       </c>
@@ -7312,7 +7527,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>42891</v>
       </c>
@@ -7334,7 +7549,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>42891</v>
       </c>
@@ -7356,7 +7571,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>42898</v>
       </c>
@@ -7378,7 +7593,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>42898</v>
       </c>
@@ -7400,7 +7615,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>42905</v>
       </c>
@@ -7422,7 +7637,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>42912</v>
       </c>
@@ -7444,7 +7659,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>42912</v>
       </c>
@@ -7466,7 +7681,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>42912</v>
       </c>
@@ -7488,7 +7703,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>42919</v>
       </c>
@@ -7510,7 +7725,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>42919</v>
       </c>
@@ -7532,7 +7747,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>42926</v>
       </c>
@@ -7554,7 +7769,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>42926</v>
       </c>
@@ -7576,7 +7791,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>42926</v>
       </c>
@@ -7598,7 +7813,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>42933</v>
       </c>
@@ -7620,7 +7835,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>42933</v>
       </c>
@@ -7642,7 +7857,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>42940</v>
       </c>
@@ -7664,7 +7879,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>42947</v>
       </c>
@@ -7686,7 +7901,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>42954</v>
       </c>
@@ -7708,7 +7923,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>42954</v>
       </c>
@@ -7730,7 +7945,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>42961</v>
       </c>
@@ -7752,7 +7967,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>42961</v>
       </c>
@@ -7774,7 +7989,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>42968</v>
       </c>
@@ -7796,7 +8011,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>42968</v>
       </c>
@@ -7818,7 +8033,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>42975</v>
       </c>
@@ -7840,7 +8055,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>42975</v>
       </c>
@@ -7862,7 +8077,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>42982</v>
       </c>
@@ -7884,7 +8099,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>42982</v>
       </c>
@@ -7906,7 +8121,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>42989</v>
       </c>
@@ -7928,7 +8143,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>42989</v>
       </c>
@@ -7950,7 +8165,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>42989</v>
       </c>
@@ -7972,7 +8187,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>42996</v>
       </c>
@@ -7994,7 +8209,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>42996</v>
       </c>
@@ -8016,7 +8231,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>43003</v>
       </c>
@@ -8038,7 +8253,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>43003</v>
       </c>
@@ -8060,7 +8275,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>43010</v>
       </c>
@@ -8082,7 +8297,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>43017</v>
       </c>
@@ -8104,7 +8319,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>43024</v>
       </c>
@@ -8126,7 +8341,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>43031</v>
       </c>
@@ -8148,7 +8363,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>43031</v>
       </c>
@@ -8170,7 +8385,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>43031</v>
       </c>
@@ -8192,7 +8407,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>43038</v>
       </c>
@@ -8214,7 +8429,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>43038</v>
       </c>
@@ -8236,7 +8451,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>43045</v>
       </c>
@@ -8258,7 +8473,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>43045</v>
       </c>
@@ -8280,7 +8495,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>43052</v>
       </c>
@@ -8302,7 +8517,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>43052</v>
       </c>
@@ -8324,7 +8539,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>43052</v>
       </c>
@@ -8346,7 +8561,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>43059</v>
       </c>
@@ -8368,7 +8583,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>43066</v>
       </c>
@@ -8390,7 +8605,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>43073</v>
       </c>
@@ -8412,7 +8627,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>43073</v>
       </c>
@@ -8434,7 +8649,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>43080</v>
       </c>
@@ -8456,7 +8671,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>43080</v>
       </c>
@@ -8478,7 +8693,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>43080</v>
       </c>
@@ -8500,7 +8715,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>43087</v>
       </c>
@@ -8522,7 +8737,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>43087</v>
       </c>
@@ -8544,7 +8759,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>43087</v>
       </c>
@@ -8566,7 +8781,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>43094</v>
       </c>
@@ -8588,7 +8803,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>43094</v>
       </c>
@@ -8610,7 +8825,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>43094</v>
       </c>
@@ -8632,7 +8847,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>43101</v>
       </c>
@@ -8654,7 +8869,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>43101</v>
       </c>
@@ -8676,7 +8891,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>43108</v>
       </c>
@@ -8698,7 +8913,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>43108</v>
       </c>
@@ -8720,7 +8935,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>43115</v>
       </c>
@@ -8742,7 +8957,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>43115</v>
       </c>
@@ -8764,7 +8979,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>43115</v>
       </c>
@@ -8786,7 +9001,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>43122</v>
       </c>
@@ -8808,7 +9023,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>43129</v>
       </c>
@@ -8830,7 +9045,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>43136</v>
       </c>
@@ -8852,7 +9067,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>43136</v>
       </c>
@@ -8874,7 +9089,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>43143</v>
       </c>
@@ -8896,7 +9111,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>43143</v>
       </c>
@@ -8918,7 +9133,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>43143</v>
       </c>
@@ -8940,7 +9155,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>43150</v>
       </c>
@@ -8962,7 +9177,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>43150</v>
       </c>
@@ -8984,7 +9199,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>43150</v>
       </c>
@@ -9006,7 +9221,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>43157</v>
       </c>
@@ -9028,7 +9243,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>43157</v>
       </c>
@@ -9050,7 +9265,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>43157</v>
       </c>
@@ -9072,7 +9287,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>43157</v>
       </c>
@@ -9094,7 +9309,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>43164</v>
       </c>
@@ -9116,7 +9331,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>43164</v>
       </c>
@@ -9138,7 +9353,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>43164</v>
       </c>
@@ -9160,7 +9375,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>43164</v>
       </c>
@@ -9182,7 +9397,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>43171</v>
       </c>
@@ -9204,7 +9419,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>43171</v>
       </c>
@@ -9226,7 +9441,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>43171</v>
       </c>
@@ -9248,7 +9463,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>43178</v>
       </c>
@@ -9270,7 +9485,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>43178</v>
       </c>
@@ -9292,7 +9507,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>43178</v>
       </c>
@@ -9314,7 +9529,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>43185</v>
       </c>
@@ -9336,7 +9551,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>43185</v>
       </c>
@@ -9358,7 +9573,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>43185</v>
       </c>
@@ -9380,7 +9595,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>43185</v>
       </c>
@@ -9402,7 +9617,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>43185</v>
       </c>
@@ -9424,7 +9639,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>43192</v>
       </c>
@@ -9446,7 +9661,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>43192</v>
       </c>
@@ -9468,7 +9683,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>43192</v>
       </c>
@@ -9490,7 +9705,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>43199</v>
       </c>
@@ -9512,7 +9727,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>43199</v>
       </c>
@@ -9534,7 +9749,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>43206</v>
       </c>
@@ -9556,7 +9771,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>43213</v>
       </c>
@@ -9578,7 +9793,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>43213</v>
       </c>
@@ -9600,7 +9815,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>43213</v>
       </c>
@@ -9622,7 +9837,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>43220</v>
       </c>
@@ -9644,7 +9859,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>43220</v>
       </c>
@@ -9666,7 +9881,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>43227</v>
       </c>
@@ -9688,7 +9903,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>43234</v>
       </c>
@@ -9710,7 +9925,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>43234</v>
       </c>
@@ -9732,7 +9947,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>43241</v>
       </c>
@@ -9754,7 +9969,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>43241</v>
       </c>
@@ -9776,7 +9991,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>43241</v>
       </c>
@@ -9798,7 +10013,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>43248</v>
       </c>
@@ -9820,7 +10035,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>43248</v>
       </c>
@@ -9842,7 +10057,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>43255</v>
       </c>
@@ -9864,7 +10079,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>43255</v>
       </c>
@@ -9886,7 +10101,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>43262</v>
       </c>
@@ -9908,7 +10123,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>43262</v>
       </c>
@@ -9930,7 +10145,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>43262</v>
       </c>
@@ -9952,7 +10167,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>43269</v>
       </c>
@@ -9974,7 +10189,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>43269</v>
       </c>
@@ -9996,7 +10211,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>43276</v>
       </c>
@@ -10018,7 +10233,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>43276</v>
       </c>
@@ -10040,7 +10255,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>43283</v>
       </c>
@@ -10062,7 +10277,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>43283</v>
       </c>
@@ -10084,7 +10299,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>43290</v>
       </c>
@@ -10106,7 +10321,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>43290</v>
       </c>
@@ -10128,7 +10343,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>43297</v>
       </c>
@@ -10150,7 +10365,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>43297</v>
       </c>
@@ -10172,7 +10387,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>43304</v>
       </c>
@@ -10194,7 +10409,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>43304</v>
       </c>
@@ -10216,7 +10431,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>43311</v>
       </c>
@@ -10238,7 +10453,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>43318</v>
       </c>
@@ -10260,7 +10475,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>43318</v>
       </c>
@@ -10282,7 +10497,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>43325</v>
       </c>
@@ -10304,7 +10519,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>43325</v>
       </c>
@@ -10326,7 +10541,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>43325</v>
       </c>
@@ -10348,7 +10563,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>43332</v>
       </c>
@@ -10370,7 +10585,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>43332</v>
       </c>
@@ -10392,7 +10607,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>43332</v>
       </c>
@@ -10414,7 +10629,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>43339</v>
       </c>
@@ -10436,7 +10651,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>43339</v>
       </c>
@@ -10458,7 +10673,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>43339</v>
       </c>
@@ -10480,7 +10695,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>43346</v>
       </c>
@@ -10502,7 +10717,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>43346</v>
       </c>
@@ -10524,7 +10739,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>43353</v>
       </c>
@@ -10546,7 +10761,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>43353</v>
       </c>
@@ -10568,7 +10783,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>43360</v>
       </c>
@@ -10590,7 +10805,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>43360</v>
       </c>
@@ -10612,7 +10827,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>43360</v>
       </c>
@@ -10634,7 +10849,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>43367</v>
       </c>
@@ -10656,7 +10871,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>43367</v>
       </c>
@@ -10678,7 +10893,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>43367</v>
       </c>
@@ -10700,7 +10915,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>43374</v>
       </c>
@@ -10722,7 +10937,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>43374</v>
       </c>
@@ -10744,7 +10959,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>43381</v>
       </c>
@@ -10766,7 +10981,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>43381</v>
       </c>
@@ -10788,7 +11003,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>43388</v>
       </c>
@@ -10810,7 +11025,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>43388</v>
       </c>
@@ -10832,7 +11047,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>43388</v>
       </c>
@@ -10854,7 +11069,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>43395</v>
       </c>
@@ -10876,7 +11091,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>43395</v>
       </c>
@@ -10898,7 +11113,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>43402</v>
       </c>
@@ -10920,7 +11135,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>43409</v>
       </c>
@@ -10942,7 +11157,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>43416</v>
       </c>
@@ -10964,7 +11179,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>43423</v>
       </c>
@@ -10986,7 +11201,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>43430</v>
       </c>
@@ -11008,7 +11223,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>43430</v>
       </c>
@@ -11030,7 +11245,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>43437</v>
       </c>
@@ -11052,7 +11267,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>43444</v>
       </c>
@@ -11074,7 +11289,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>43451</v>
       </c>
@@ -11096,7 +11311,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>43451</v>
       </c>
@@ -11118,7 +11333,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>43458</v>
       </c>
@@ -11140,7 +11355,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>43465</v>
       </c>
@@ -11162,7 +11377,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>43465</v>
       </c>
@@ -11184,7 +11399,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>43472</v>
       </c>
@@ -11206,7 +11421,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>43472</v>
       </c>
@@ -11228,7 +11443,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>43472</v>
       </c>
@@ -11250,7 +11465,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>43479</v>
       </c>
@@ -11272,7 +11487,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>43479</v>
       </c>
@@ -11294,7 +11509,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>43479</v>
       </c>
@@ -11316,7 +11531,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>43486</v>
       </c>
@@ -11338,7 +11553,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>43493</v>
       </c>
@@ -11360,7 +11575,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>43500</v>
       </c>
@@ -11382,7 +11597,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>43500</v>
       </c>
@@ -11404,7 +11619,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>43507</v>
       </c>
@@ -11426,7 +11641,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>43507</v>
       </c>
@@ -11448,7 +11663,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>43507</v>
       </c>
@@ -11470,7 +11685,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>43514</v>
       </c>
@@ -11492,7 +11707,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>43514</v>
       </c>
@@ -11514,7 +11729,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>43514</v>
       </c>
@@ -11536,7 +11751,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>43521</v>
       </c>
@@ -11558,7 +11773,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>43521</v>
       </c>
@@ -11580,7 +11795,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>43521</v>
       </c>
@@ -11602,7 +11817,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>43521</v>
       </c>
@@ -11624,7 +11839,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>43528</v>
       </c>
@@ -11646,7 +11861,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>43528</v>
       </c>
@@ -11668,7 +11883,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>43528</v>
       </c>
@@ -11690,7 +11905,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>43535</v>
       </c>
@@ -11712,7 +11927,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>43535</v>
       </c>
@@ -11734,7 +11949,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>43535</v>
       </c>
@@ -11756,7 +11971,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>43542</v>
       </c>
@@ -11778,7 +11993,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>43542</v>
       </c>
@@ -11800,7 +12015,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>43542</v>
       </c>
@@ -11822,7 +12037,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>43549</v>
       </c>
@@ -11844,7 +12059,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>43549</v>
       </c>
@@ -11866,7 +12081,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>43549</v>
       </c>
@@ -11888,7 +12103,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>43549</v>
       </c>
@@ -11910,7 +12125,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>43556</v>
       </c>
@@ -11932,7 +12147,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>43556</v>
       </c>
@@ -11954,7 +12169,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>43563</v>
       </c>
@@ -11976,7 +12191,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>43570</v>
       </c>
@@ -11998,7 +12213,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>43577</v>
       </c>
@@ -12020,7 +12235,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>43577</v>
       </c>
@@ -12042,7 +12257,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>43584</v>
       </c>
@@ -12064,7 +12279,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>43591</v>
       </c>
@@ -12086,7 +12301,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>43591</v>
       </c>
@@ -12108,7 +12323,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>43598</v>
       </c>
@@ -12130,7 +12345,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>43605</v>
       </c>
@@ -12152,7 +12367,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>43612</v>
       </c>
@@ -12174,7 +12389,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>43612</v>
       </c>
@@ -12196,7 +12411,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>43619</v>
       </c>
@@ -12218,7 +12433,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>43626</v>
       </c>
@@ -12240,7 +12455,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>43626</v>
       </c>
@@ -12262,7 +12477,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>43633</v>
       </c>
@@ -12284,7 +12499,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>43640</v>
       </c>
@@ -12306,7 +12521,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>43640</v>
       </c>
@@ -12328,7 +12543,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>43647</v>
       </c>
@@ -12350,7 +12565,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>43654</v>
       </c>
@@ -12372,7 +12587,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>43661</v>
       </c>
@@ -12394,7 +12609,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>43661</v>
       </c>
@@ -12416,7 +12631,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>43668</v>
       </c>
@@ -12438,7 +12653,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>43675</v>
       </c>
@@ -12460,7 +12675,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>43675</v>
       </c>
@@ -12482,7 +12697,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>43682</v>
       </c>
@@ -12504,7 +12719,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>43682</v>
       </c>
@@ -12526,7 +12741,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>43689</v>
       </c>
@@ -12548,7 +12763,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>43689</v>
       </c>
@@ -12570,7 +12785,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>43696</v>
       </c>
@@ -12592,7 +12807,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>43703</v>
       </c>
@@ -12614,7 +12829,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>43710</v>
       </c>
@@ -12636,7 +12851,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>43717</v>
       </c>
@@ -12658,7 +12873,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>43724</v>
       </c>
@@ -12680,7 +12895,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>43724</v>
       </c>
@@ -12702,7 +12917,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>43731</v>
       </c>
@@ -12724,7 +12939,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>43738</v>
       </c>
@@ -12746,7 +12961,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>43745</v>
       </c>
@@ -12768,7 +12983,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>43745</v>
       </c>
@@ -12790,7 +13005,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>43752</v>
       </c>
@@ -12812,7 +13027,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>43752</v>
       </c>
@@ -12834,7 +13049,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>43759</v>
       </c>
@@ -12856,7 +13071,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>43759</v>
       </c>
@@ -12878,7 +13093,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>43766</v>
       </c>
@@ -12900,7 +13115,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>43773</v>
       </c>
@@ -12922,7 +13137,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>43773</v>
       </c>
@@ -12944,7 +13159,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>43780</v>
       </c>
@@ -12966,7 +13181,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>43787</v>
       </c>
@@ -12988,7 +13203,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>43787</v>
       </c>
@@ -13010,7 +13225,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>43794</v>
       </c>
@@ -13032,7 +13247,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>43801</v>
       </c>
@@ -13054,7 +13269,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>43801</v>
       </c>
@@ -13076,7 +13291,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>43808</v>
       </c>
@@ -13098,7 +13313,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>43808</v>
       </c>
@@ -13120,7 +13335,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>43815</v>
       </c>
@@ -13142,7 +13357,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>43815</v>
       </c>
@@ -13164,7 +13379,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>43815</v>
       </c>
@@ -13186,7 +13401,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>43822</v>
       </c>
@@ -13208,7 +13423,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>43822</v>
       </c>
@@ -13230,7 +13445,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>43829</v>
       </c>
@@ -13252,7 +13467,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>43829</v>
       </c>
@@ -13274,7 +13489,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>43829</v>
       </c>
@@ -13296,7 +13511,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>43836</v>
       </c>
@@ -13318,7 +13533,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>43836</v>
       </c>
@@ -13340,7 +13555,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>43843</v>
       </c>
@@ -13362,7 +13577,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>43843</v>
       </c>
@@ -13384,7 +13599,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>43843</v>
       </c>
@@ -13406,7 +13621,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>43850</v>
       </c>
@@ -13428,7 +13643,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>43850</v>
       </c>
@@ -13450,7 +13665,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>43850</v>
       </c>
@@ -13472,7 +13687,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>43850</v>
       </c>
@@ -13494,7 +13709,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>43857</v>
       </c>
@@ -13516,7 +13731,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>43857</v>
       </c>
@@ -13538,7 +13753,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>43857</v>
       </c>
@@ -13560,7 +13775,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>43857</v>
       </c>
@@ -13582,7 +13797,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>43864</v>
       </c>
@@ -13604,7 +13819,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>43864</v>
       </c>
@@ -13626,7 +13841,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>43864</v>
       </c>
@@ -13648,7 +13863,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>43864</v>
       </c>
@@ -13670,7 +13885,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>43871</v>
       </c>
@@ -13692,7 +13907,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>43871</v>
       </c>
@@ -13714,7 +13929,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>43871</v>
       </c>
@@ -13736,7 +13951,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>43878</v>
       </c>
@@ -13758,7 +13973,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>43878</v>
       </c>
@@ -13780,7 +13995,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>43878</v>
       </c>
@@ -13802,7 +14017,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>43878</v>
       </c>
@@ -13824,7 +14039,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>43885</v>
       </c>
@@ -13846,7 +14061,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>43885</v>
       </c>
@@ -13868,7 +14083,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>43885</v>
       </c>
@@ -13890,7 +14105,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>43892</v>
       </c>
@@ -13912,7 +14127,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>43892</v>
       </c>
@@ -13934,7 +14149,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>43892</v>
       </c>
@@ -13956,7 +14171,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>43892</v>
       </c>
@@ -13978,7 +14193,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>43899</v>
       </c>
@@ -14000,7 +14215,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>43899</v>
       </c>
@@ -14022,7 +14237,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>43899</v>
       </c>
@@ -14044,7 +14259,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
-    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>43899</v>
       </c>
@@ -14066,7 +14281,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>43906</v>
       </c>
@@ -14088,7 +14303,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
     </row>
-    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>43906</v>
       </c>
@@ -14110,7 +14325,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
     </row>
-    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>43906</v>
       </c>
@@ -14132,7 +14347,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>43913</v>
       </c>
@@ -14154,7 +14369,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="2"/>
     </row>
-    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>43913</v>
       </c>
@@ -14176,7 +14391,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>43913</v>
       </c>
@@ -14198,7 +14413,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>43913</v>
       </c>
@@ -14220,7 +14435,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>43920</v>
       </c>
@@ -14242,7 +14457,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="2"/>
     </row>
-    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>43920</v>
       </c>
@@ -14264,7 +14479,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
     </row>
-    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>43927</v>
       </c>
@@ -14286,7 +14501,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
     </row>
-    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>43927</v>
       </c>
@@ -14308,7 +14523,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
     </row>
-    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>43934</v>
       </c>
@@ -14330,7 +14545,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>43934</v>
       </c>
@@ -14352,7 +14567,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
-    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>43941</v>
       </c>
@@ -14374,7 +14589,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
     </row>
-    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>43941</v>
       </c>
@@ -14396,7 +14611,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="2"/>
     </row>
-    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>43948</v>
       </c>
@@ -14418,7 +14633,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
-    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>43955</v>
       </c>
@@ -14440,7 +14655,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
     </row>
-    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>43955</v>
       </c>
@@ -14462,7 +14677,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="2"/>
     </row>
-    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>43962</v>
       </c>
@@ -14484,7 +14699,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
-    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>43969</v>
       </c>
@@ -14506,7 +14721,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="2"/>
     </row>
-    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>43969</v>
       </c>
@@ -14528,7 +14743,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
     </row>
-    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>43976</v>
       </c>
@@ -14550,7 +14765,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
     </row>
-    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>43976</v>
       </c>
@@ -14572,7 +14787,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
     </row>
-    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>43976</v>
       </c>
@@ -14594,7 +14809,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="2"/>
     </row>
-    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>43983</v>
       </c>
@@ -14616,7 +14831,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
-    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>43990</v>
       </c>
@@ -14638,7 +14853,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
-    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>43990</v>
       </c>
@@ -14660,7 +14875,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
     </row>
-    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>43997</v>
       </c>
@@ -14682,7 +14897,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="2"/>
     </row>
-    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>43997</v>
       </c>
@@ -14704,7 +14919,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="2"/>
     </row>
-    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>43997</v>
       </c>
@@ -14726,7 +14941,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
-    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>44004</v>
       </c>
@@ -14748,7 +14963,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="2"/>
     </row>
-    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>44004</v>
       </c>
@@ -14770,7 +14985,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="2"/>
     </row>
-    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>44011</v>
       </c>
@@ -14792,7 +15007,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="2"/>
     </row>
-    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>44011</v>
       </c>
@@ -14814,7 +15029,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="2"/>
     </row>
-    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>44011</v>
       </c>
@@ -14836,7 +15051,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
     </row>
-    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>44018</v>
       </c>
@@ -14858,7 +15073,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
-    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>44018</v>
       </c>
@@ -14880,7 +15095,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="2"/>
     </row>
-    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>44025</v>
       </c>
@@ -14902,7 +15117,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="2"/>
     </row>
-    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>44025</v>
       </c>
@@ -14924,7 +15139,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
     </row>
-    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>44032</v>
       </c>
@@ -14946,7 +15161,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>44039</v>
       </c>
@@ -14968,7 +15183,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="2"/>
     </row>
-    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>44039</v>
       </c>
@@ -14990,7 +15205,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
-    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>44039</v>
       </c>
@@ -15012,7 +15227,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
     </row>
-    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>44046</v>
       </c>
@@ -15034,7 +15249,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="2"/>
     </row>
-    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>44046</v>
       </c>
@@ -15056,7 +15271,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
-    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>44046</v>
       </c>
@@ -15078,7 +15293,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="2"/>
     </row>
-    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>44053</v>
       </c>
@@ -15100,7 +15315,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="2"/>
     </row>
-    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>44060</v>
       </c>
@@ -15122,7 +15337,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="2"/>
     </row>
-    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>44060</v>
       </c>
@@ -15144,7 +15359,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="2"/>
     </row>
-    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>44067</v>
       </c>
@@ -15166,7 +15381,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="2"/>
     </row>
-    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>44074</v>
       </c>
@@ -15188,7 +15403,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="2"/>
     </row>
-    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>44074</v>
       </c>
@@ -15210,7 +15425,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>44074</v>
       </c>
@@ -15232,7 +15447,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
     </row>
-    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>44081</v>
       </c>
@@ -15254,7 +15469,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="2"/>
     </row>
-    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>44081</v>
       </c>
@@ -15276,7 +15491,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="2"/>
     </row>
-    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>44088</v>
       </c>
@@ -15298,7 +15513,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
     </row>
-    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>44088</v>
       </c>
@@ -15320,7 +15535,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
     </row>
-    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>44095</v>
       </c>
@@ -15342,7 +15557,7 @@
       <c r="K646" s="2"/>
       <c r="L646" s="2"/>
     </row>
-    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>44095</v>
       </c>
@@ -15364,7 +15579,7 @@
       <c r="K647" s="2"/>
       <c r="L647" s="2"/>
     </row>
-    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>44095</v>
       </c>
@@ -15386,7 +15601,7 @@
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
-    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>44102</v>
       </c>
@@ -15408,7 +15623,7 @@
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
-    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>44102</v>
       </c>
@@ -15430,7 +15645,7 @@
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
     </row>
-    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>44109</v>
       </c>
@@ -15452,7 +15667,7 @@
       <c r="K651" s="2"/>
       <c r="L651" s="2"/>
     </row>
-    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>44109</v>
       </c>
@@ -15474,7 +15689,7 @@
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
     </row>
-    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>44116</v>
       </c>
@@ -15496,7 +15711,7 @@
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
     </row>
-    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>44123</v>
       </c>
@@ -15518,7 +15733,7 @@
       <c r="K654" s="2"/>
       <c r="L654" s="2"/>
     </row>
-    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>44130</v>
       </c>
@@ -15540,7 +15755,7 @@
       <c r="K655" s="2"/>
       <c r="L655" s="2"/>
     </row>
-    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>44130</v>
       </c>
@@ -15562,7 +15777,7 @@
       <c r="K656" s="2"/>
       <c r="L656" s="2"/>
     </row>
-    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>44130</v>
       </c>
@@ -15584,7 +15799,7 @@
       <c r="K657" s="2"/>
       <c r="L657" s="2"/>
     </row>
-    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>44137</v>
       </c>
@@ -15606,7 +15821,7 @@
       <c r="K658" s="2"/>
       <c r="L658" s="2"/>
     </row>
-    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>44144</v>
       </c>
@@ -15628,7 +15843,7 @@
       <c r="K659" s="2"/>
       <c r="L659" s="2"/>
     </row>
-    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>44144</v>
       </c>
@@ -15650,7 +15865,7 @@
       <c r="K660" s="2"/>
       <c r="L660" s="2"/>
     </row>
-    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>44151</v>
       </c>
@@ -15672,7 +15887,7 @@
       <c r="K661" s="2"/>
       <c r="L661" s="2"/>
     </row>
-    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>44151</v>
       </c>
@@ -15694,7 +15909,7 @@
       <c r="K662" s="2"/>
       <c r="L662" s="2"/>
     </row>
-    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>44158</v>
       </c>
@@ -15716,7 +15931,7 @@
       <c r="K663" s="2"/>
       <c r="L663" s="2"/>
     </row>
-    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>44158</v>
       </c>
@@ -15738,7 +15953,7 @@
       <c r="K664" s="2"/>
       <c r="L664" s="2"/>
     </row>
-    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>44165</v>
       </c>
@@ -15760,7 +15975,7 @@
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
-    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>44165</v>
       </c>
@@ -15782,7 +15997,7 @@
       <c r="K666" s="2"/>
       <c r="L666" s="2"/>
     </row>
-    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>44172</v>
       </c>
@@ -15804,7 +16019,7 @@
       <c r="K667" s="2"/>
       <c r="L667" s="2"/>
     </row>
-    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>44179</v>
       </c>
@@ -15826,7 +16041,7 @@
       <c r="K668" s="2"/>
       <c r="L668" s="2"/>
     </row>
-    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>44179</v>
       </c>
@@ -15848,7 +16063,7 @@
       <c r="K669" s="2"/>
       <c r="L669" s="2"/>
     </row>
-    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>44179</v>
       </c>
@@ -15870,7 +16085,7 @@
       <c r="K670" s="2"/>
       <c r="L670" s="2"/>
     </row>
-    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>44179</v>
       </c>
@@ -15892,7 +16107,7 @@
       <c r="K671" s="2"/>
       <c r="L671" s="2"/>
     </row>
-    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>44186</v>
       </c>
@@ -15914,7 +16129,7 @@
       <c r="K672" s="2"/>
       <c r="L672" s="2"/>
     </row>
-    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>44186</v>
       </c>
@@ -15936,7 +16151,7 @@
       <c r="K673" s="2"/>
       <c r="L673" s="2"/>
     </row>
-    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>44186</v>
       </c>
@@ -15958,7 +16173,7 @@
       <c r="K674" s="2"/>
       <c r="L674" s="2"/>
     </row>
-    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>44193</v>
       </c>
@@ -15980,7 +16195,7 @@
       <c r="K675" s="2"/>
       <c r="L675" s="2"/>
     </row>
-    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>44193</v>
       </c>
@@ -16002,7 +16217,7 @@
       <c r="K676" s="2"/>
       <c r="L676" s="2"/>
     </row>
-    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>44193</v>
       </c>
@@ -16024,7 +16239,7 @@
       <c r="K677" s="2"/>
       <c r="L677" s="2"/>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>44193</v>
       </c>
@@ -16046,7 +16261,7 @@
       <c r="K678" s="2"/>
       <c r="L678" s="2"/>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>44200</v>
       </c>
@@ -16068,7 +16283,7 @@
       <c r="K679" s="2"/>
       <c r="L679" s="2"/>
     </row>
-    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>44207</v>
       </c>
@@ -16090,7 +16305,7 @@
       <c r="K680" s="2"/>
       <c r="L680" s="2"/>
     </row>
-    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>44214</v>
       </c>
@@ -16112,7 +16327,7 @@
       <c r="K681" s="2"/>
       <c r="L681" s="2"/>
     </row>
-    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>44214</v>
       </c>
@@ -16134,7 +16349,7 @@
       <c r="K682" s="2"/>
       <c r="L682" s="2"/>
     </row>
-    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>44221</v>
       </c>
@@ -16156,7 +16371,7 @@
       <c r="K683" s="2"/>
       <c r="L683" s="2"/>
     </row>
-    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>44221</v>
       </c>
@@ -16178,7 +16393,7 @@
       <c r="K684" s="2"/>
       <c r="L684" s="2"/>
     </row>
-    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>44221</v>
       </c>
@@ -16200,7 +16415,7 @@
       <c r="K685" s="2"/>
       <c r="L685" s="2"/>
     </row>
-    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>44228</v>
       </c>
@@ -16222,7 +16437,7 @@
       <c r="K686" s="2"/>
       <c r="L686" s="2"/>
     </row>
-    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>44228</v>
       </c>
@@ -16244,7 +16459,7 @@
       <c r="K687" s="2"/>
       <c r="L687" s="2"/>
     </row>
-    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>44235</v>
       </c>
@@ -16266,7 +16481,7 @@
       <c r="K688" s="2"/>
       <c r="L688" s="2"/>
     </row>
-    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>44235</v>
       </c>
@@ -16288,7 +16503,7 @@
       <c r="K689" s="2"/>
       <c r="L689" s="2"/>
     </row>
-    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>44235</v>
       </c>
@@ -16310,7 +16525,7 @@
       <c r="K690" s="2"/>
       <c r="L690" s="2"/>
     </row>
-    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>44242</v>
       </c>
@@ -16332,7 +16547,7 @@
       <c r="K691" s="2"/>
       <c r="L691" s="2"/>
     </row>
-    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>44242</v>
       </c>
@@ -16354,7 +16569,7 @@
       <c r="K692" s="2"/>
       <c r="L692" s="2"/>
     </row>
-    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>44249</v>
       </c>
@@ -16376,7 +16591,7 @@
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
     </row>
-    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>44249</v>
       </c>
@@ -16398,7 +16613,7 @@
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
     </row>
-    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>44249</v>
       </c>
@@ -16420,7 +16635,7 @@
       <c r="K695" s="2"/>
       <c r="L695" s="2"/>
     </row>
-    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>44249</v>
       </c>
@@ -16442,7 +16657,7 @@
       <c r="K696" s="2"/>
       <c r="L696" s="2"/>
     </row>
-    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>44249</v>
       </c>
@@ -16464,7 +16679,7 @@
       <c r="K697" s="2"/>
       <c r="L697" s="2"/>
     </row>
-    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>44256</v>
       </c>
@@ -16486,7 +16701,7 @@
       <c r="K698" s="2"/>
       <c r="L698" s="2"/>
     </row>
-    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>44256</v>
       </c>
@@ -16508,7 +16723,7 @@
       <c r="K699" s="2"/>
       <c r="L699" s="2"/>
     </row>
-    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>44256</v>
       </c>
@@ -16530,7 +16745,7 @@
       <c r="K700" s="2"/>
       <c r="L700" s="2"/>
     </row>
-    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>44263</v>
       </c>
@@ -16552,7 +16767,7 @@
       <c r="K701" s="2"/>
       <c r="L701" s="2"/>
     </row>
-    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>44263</v>
       </c>
@@ -16574,7 +16789,7 @@
       <c r="K702" s="2"/>
       <c r="L702" s="2"/>
     </row>
-    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>44263</v>
       </c>
@@ -16596,7 +16811,7 @@
       <c r="K703" s="2"/>
       <c r="L703" s="2"/>
     </row>
-    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>44263</v>
       </c>
@@ -16618,7 +16833,7 @@
       <c r="K704" s="2"/>
       <c r="L704" s="2"/>
     </row>
-    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>44270</v>
       </c>
@@ -16640,7 +16855,7 @@
       <c r="K705" s="2"/>
       <c r="L705" s="2"/>
     </row>
-    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>44270</v>
       </c>
@@ -16662,7 +16877,7 @@
       <c r="K706" s="2"/>
       <c r="L706" s="2"/>
     </row>
-    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>44270</v>
       </c>
@@ -16684,7 +16899,7 @@
       <c r="K707" s="2"/>
       <c r="L707" s="2"/>
     </row>
-    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>44270</v>
       </c>
@@ -16706,7 +16921,7 @@
       <c r="K708" s="2"/>
       <c r="L708" s="2"/>
     </row>
-    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>44277</v>
       </c>
@@ -16728,7 +16943,7 @@
       <c r="K709" s="2"/>
       <c r="L709" s="2"/>
     </row>
-    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>44277</v>
       </c>
@@ -16750,7 +16965,7 @@
       <c r="K710" s="2"/>
       <c r="L710" s="2"/>
     </row>
-    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>44277</v>
       </c>
@@ -16772,7 +16987,7 @@
       <c r="K711" s="2"/>
       <c r="L711" s="2"/>
     </row>
-    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>44284</v>
       </c>
@@ -16794,7 +17009,7 @@
       <c r="K712" s="2"/>
       <c r="L712" s="2"/>
     </row>
-    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>44284</v>
       </c>
@@ -16816,7 +17031,7 @@
       <c r="K713" s="2"/>
       <c r="L713" s="2"/>
     </row>
-    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>44284</v>
       </c>
@@ -16838,7 +17053,7 @@
       <c r="K714" s="2"/>
       <c r="L714" s="2"/>
     </row>
-    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>44284</v>
       </c>
@@ -16860,7 +17075,7 @@
       <c r="K715" s="2"/>
       <c r="L715" s="2"/>
     </row>
-    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>44291</v>
       </c>
@@ -16882,7 +17097,7 @@
       <c r="K716" s="2"/>
       <c r="L716" s="2"/>
     </row>
-    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>44291</v>
       </c>
@@ -16904,7 +17119,7 @@
       <c r="K717" s="2"/>
       <c r="L717" s="2"/>
     </row>
-    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>44298</v>
       </c>
@@ -16926,7 +17141,7 @@
       <c r="K718" s="2"/>
       <c r="L718" s="2"/>
     </row>
-    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>44298</v>
       </c>
@@ -16948,7 +17163,7 @@
       <c r="K719" s="2"/>
       <c r="L719" s="2"/>
     </row>
-    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>44305</v>
       </c>
@@ -16970,7 +17185,7 @@
       <c r="K720" s="2"/>
       <c r="L720" s="2"/>
     </row>
-    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>44305</v>
       </c>
@@ -16992,7 +17207,7 @@
       <c r="K721" s="2"/>
       <c r="L721" s="2"/>
     </row>
-    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>44312</v>
       </c>
@@ -17014,7 +17229,7 @@
       <c r="K722" s="2"/>
       <c r="L722" s="2"/>
     </row>
-    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>44312</v>
       </c>
@@ -17036,7 +17251,7 @@
       <c r="K723" s="2"/>
       <c r="L723" s="2"/>
     </row>
-    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>44319</v>
       </c>
@@ -17058,7 +17273,7 @@
       <c r="K724" s="2"/>
       <c r="L724" s="2"/>
     </row>
-    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>44319</v>
       </c>
@@ -17080,7 +17295,7 @@
       <c r="K725" s="2"/>
       <c r="L725" s="2"/>
     </row>
-    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>44326</v>
       </c>
@@ -17102,7 +17317,7 @@
       <c r="K726" s="2"/>
       <c r="L726" s="2"/>
     </row>
-    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>44326</v>
       </c>
@@ -17124,7 +17339,7 @@
       <c r="K727" s="2"/>
       <c r="L727" s="2"/>
     </row>
-    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>44326</v>
       </c>
@@ -17146,7 +17361,7 @@
       <c r="K728" s="2"/>
       <c r="L728" s="2"/>
     </row>
-    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>44333</v>
       </c>
@@ -17168,7 +17383,7 @@
       <c r="K729" s="2"/>
       <c r="L729" s="2"/>
     </row>
-    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>44333</v>
       </c>
@@ -17190,7 +17405,7 @@
       <c r="K730" s="2"/>
       <c r="L730" s="2"/>
     </row>
-    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>44333</v>
       </c>
@@ -17212,7 +17427,7 @@
       <c r="K731" s="2"/>
       <c r="L731" s="2"/>
     </row>
-    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>44340</v>
       </c>
@@ -17234,7 +17449,7 @@
       <c r="K732" s="2"/>
       <c r="L732" s="2"/>
     </row>
-    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>44340</v>
       </c>
@@ -17256,7 +17471,7 @@
       <c r="K733" s="2"/>
       <c r="L733" s="2"/>
     </row>
-    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>44340</v>
       </c>
@@ -17278,7 +17493,7 @@
       <c r="K734" s="2"/>
       <c r="L734" s="2"/>
     </row>
-    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>44347</v>
       </c>
@@ -17300,7 +17515,7 @@
       <c r="K735" s="2"/>
       <c r="L735" s="2"/>
     </row>
-    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>44347</v>
       </c>
@@ -17322,7 +17537,7 @@
       <c r="K736" s="2"/>
       <c r="L736" s="2"/>
     </row>
-    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>44347</v>
       </c>
@@ -17344,7 +17559,7 @@
       <c r="K737" s="2"/>
       <c r="L737" s="2"/>
     </row>
-    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>44354</v>
       </c>
@@ -17366,7 +17581,7 @@
       <c r="K738" s="2"/>
       <c r="L738" s="2"/>
     </row>
-    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>44354</v>
       </c>
@@ -17388,7 +17603,7 @@
       <c r="K739" s="2"/>
       <c r="L739" s="2"/>
     </row>
-    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>44354</v>
       </c>
@@ -17410,7 +17625,7 @@
       <c r="K740" s="2"/>
       <c r="L740" s="2"/>
     </row>
-    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>44361</v>
       </c>
@@ -17432,7 +17647,7 @@
       <c r="K741" s="2"/>
       <c r="L741" s="2"/>
     </row>
-    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>44361</v>
       </c>
@@ -17454,7 +17669,7 @@
       <c r="K742" s="2"/>
       <c r="L742" s="2"/>
     </row>
-    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>44368</v>
       </c>
@@ -17476,7 +17691,7 @@
       <c r="K743" s="2"/>
       <c r="L743" s="2"/>
     </row>
-    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>44368</v>
       </c>
@@ -17498,7 +17713,7 @@
       <c r="K744" s="2"/>
       <c r="L744" s="2"/>
     </row>
-    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>44368</v>
       </c>
@@ -17520,7 +17735,7 @@
       <c r="K745" s="2"/>
       <c r="L745" s="2"/>
     </row>
-    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>44368</v>
       </c>
@@ -17542,7 +17757,7 @@
       <c r="K746" s="2"/>
       <c r="L746" s="2"/>
     </row>
-    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>44375</v>
       </c>
@@ -17564,7 +17779,7 @@
       <c r="K747" s="2"/>
       <c r="L747" s="2"/>
     </row>
-    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>44375</v>
       </c>
@@ -17586,7 +17801,7 @@
       <c r="K748" s="2"/>
       <c r="L748" s="2"/>
     </row>
-    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>44375</v>
       </c>
@@ -17608,7 +17823,7 @@
       <c r="K749" s="2"/>
       <c r="L749" s="2"/>
     </row>
-    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>44375</v>
       </c>
@@ -17630,7 +17845,7 @@
       <c r="K750" s="2"/>
       <c r="L750" s="2"/>
     </row>
-    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>44382</v>
       </c>
@@ -17652,7 +17867,7 @@
       <c r="K751" s="2"/>
       <c r="L751" s="2"/>
     </row>
-    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>44389</v>
       </c>
@@ -17674,7 +17889,7 @@
       <c r="K752" s="2"/>
       <c r="L752" s="2"/>
     </row>
-    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>44389</v>
       </c>
@@ -17696,7 +17911,7 @@
       <c r="K753" s="2"/>
       <c r="L753" s="2"/>
     </row>
-    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>44389</v>
       </c>
@@ -17718,7 +17933,7 @@
       <c r="K754" s="2"/>
       <c r="L754" s="2"/>
     </row>
-    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>44396</v>
       </c>
@@ -17740,7 +17955,7 @@
       <c r="K755" s="2"/>
       <c r="L755" s="2"/>
     </row>
-    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>44396</v>
       </c>
@@ -17762,7 +17977,7 @@
       <c r="K756" s="2"/>
       <c r="L756" s="2"/>
     </row>
-    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>44403</v>
       </c>
@@ -17784,7 +17999,7 @@
       <c r="K757" s="2"/>
       <c r="L757" s="2"/>
     </row>
-    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>44403</v>
       </c>
@@ -17806,7 +18021,7 @@
       <c r="K758" s="2"/>
       <c r="L758" s="2"/>
     </row>
-    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>44410</v>
       </c>
@@ -17828,7 +18043,7 @@
       <c r="K759" s="2"/>
       <c r="L759" s="2"/>
     </row>
-    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>44417</v>
       </c>
@@ -17850,7 +18065,7 @@
       <c r="K760" s="2"/>
       <c r="L760" s="2"/>
     </row>
-    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>44424</v>
       </c>
@@ -17872,7 +18087,7 @@
       <c r="K761" s="2"/>
       <c r="L761" s="2"/>
     </row>
-    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>44424</v>
       </c>
@@ -17894,7 +18109,7 @@
       <c r="K762" s="2"/>
       <c r="L762" s="2"/>
     </row>
-    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>44431</v>
       </c>
@@ -17916,7 +18131,7 @@
       <c r="K763" s="2"/>
       <c r="L763" s="2"/>
     </row>
-    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>44431</v>
       </c>
@@ -17938,7 +18153,7 @@
       <c r="K764" s="2"/>
       <c r="L764" s="2"/>
     </row>
-    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>44431</v>
       </c>
@@ -17960,7 +18175,7 @@
       <c r="K765" s="2"/>
       <c r="L765" s="2"/>
     </row>
-    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>44438</v>
       </c>
@@ -17982,7 +18197,7 @@
       <c r="K766" s="2"/>
       <c r="L766" s="2"/>
     </row>
-    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>44438</v>
       </c>
@@ -18004,7 +18219,7 @@
       <c r="K767" s="2"/>
       <c r="L767" s="2"/>
     </row>
-    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>44438</v>
       </c>
@@ -18026,7 +18241,7 @@
       <c r="K768" s="2"/>
       <c r="L768" s="2"/>
     </row>
-    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>44445</v>
       </c>
@@ -18048,7 +18263,7 @@
       <c r="K769" s="2"/>
       <c r="L769" s="2"/>
     </row>
-    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>44452</v>
       </c>
@@ -18070,7 +18285,7 @@
       <c r="K770" s="2"/>
       <c r="L770" s="2"/>
     </row>
-    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>44452</v>
       </c>
@@ -18092,7 +18307,7 @@
       <c r="K771" s="2"/>
       <c r="L771" s="2"/>
     </row>
-    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>44459</v>
       </c>
@@ -18114,7 +18329,7 @@
       <c r="K772" s="2"/>
       <c r="L772" s="2"/>
     </row>
-    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>44459</v>
       </c>
@@ -18136,7 +18351,7 @@
       <c r="K773" s="2"/>
       <c r="L773" s="2"/>
     </row>
-    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>44459</v>
       </c>
@@ -18158,7 +18373,7 @@
       <c r="K774" s="2"/>
       <c r="L774" s="2"/>
     </row>
-    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>44459</v>
       </c>
@@ -18180,7 +18395,7 @@
       <c r="K775" s="2"/>
       <c r="L775" s="2"/>
     </row>
-    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>44466</v>
       </c>
@@ -18202,7 +18417,7 @@
       <c r="K776" s="2"/>
       <c r="L776" s="2"/>
     </row>
-    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>44466</v>
       </c>
@@ -18224,7 +18439,7 @@
       <c r="K777" s="2"/>
       <c r="L777" s="2"/>
     </row>
-    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>44466</v>
       </c>
@@ -18246,7 +18461,7 @@
       <c r="K778" s="2"/>
       <c r="L778" s="2"/>
     </row>
-    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>44473</v>
       </c>
@@ -18268,7 +18483,7 @@
       <c r="K779" s="2"/>
       <c r="L779" s="2"/>
     </row>
-    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>44473</v>
       </c>
@@ -18290,7 +18505,7 @@
       <c r="K780" s="2"/>
       <c r="L780" s="2"/>
     </row>
-    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>44480</v>
       </c>
@@ -18312,7 +18527,7 @@
       <c r="K781" s="2"/>
       <c r="L781" s="2"/>
     </row>
-    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>44480</v>
       </c>
@@ -18334,7 +18549,7 @@
       <c r="K782" s="2"/>
       <c r="L782" s="2"/>
     </row>
-    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>44487</v>
       </c>
@@ -18356,7 +18571,7 @@
       <c r="K783" s="2"/>
       <c r="L783" s="2"/>
     </row>
-    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>44494</v>
       </c>
@@ -18378,7 +18593,7 @@
       <c r="K784" s="2"/>
       <c r="L784" s="2"/>
     </row>
-    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>44494</v>
       </c>
@@ -18400,7 +18615,7 @@
       <c r="K785" s="2"/>
       <c r="L785" s="2"/>
     </row>
-    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>44494</v>
       </c>
@@ -18422,7 +18637,7 @@
       <c r="K786" s="2"/>
       <c r="L786" s="2"/>
     </row>
-    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>44494</v>
       </c>
@@ -18444,7 +18659,7 @@
       <c r="K787" s="2"/>
       <c r="L787" s="2"/>
     </row>
-    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>44501</v>
       </c>
@@ -18466,7 +18681,7 @@
       <c r="K788" s="2"/>
       <c r="L788" s="2"/>
     </row>
-    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>44501</v>
       </c>
@@ -18488,7 +18703,7 @@
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
     </row>
-    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>44508</v>
       </c>
@@ -18510,7 +18725,7 @@
       <c r="K790" s="2"/>
       <c r="L790" s="2"/>
     </row>
-    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>44508</v>
       </c>
@@ -18532,7 +18747,7 @@
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
     </row>
-    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>44508</v>
       </c>
@@ -18554,7 +18769,7 @@
       <c r="K792" s="2"/>
       <c r="L792" s="2"/>
     </row>
-    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>44515</v>
       </c>
@@ -18576,7 +18791,7 @@
       <c r="K793" s="2"/>
       <c r="L793" s="2"/>
     </row>
-    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>44515</v>
       </c>
@@ -18598,7 +18813,7 @@
       <c r="K794" s="2"/>
       <c r="L794" s="2"/>
     </row>
-    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>44515</v>
       </c>
@@ -18620,7 +18835,7 @@
       <c r="K795" s="2"/>
       <c r="L795" s="2"/>
     </row>
-    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>44522</v>
       </c>
@@ -18642,7 +18857,7 @@
       <c r="K796" s="2"/>
       <c r="L796" s="2"/>
     </row>
-    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>44529</v>
       </c>
@@ -18664,7 +18879,7 @@
       <c r="K797" s="2"/>
       <c r="L797" s="2"/>
     </row>
-    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>44536</v>
       </c>
@@ -18686,7 +18901,7 @@
       <c r="K798" s="2"/>
       <c r="L798" s="2"/>
     </row>
-    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>44536</v>
       </c>
@@ -18708,7 +18923,7 @@
       <c r="K799" s="2"/>
       <c r="L799" s="2"/>
     </row>
-    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>44543</v>
       </c>
@@ -18730,7 +18945,7 @@
       <c r="K800" s="2"/>
       <c r="L800" s="2"/>
     </row>
-    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>44550</v>
       </c>
@@ -18752,7 +18967,7 @@
       <c r="K801" s="2"/>
       <c r="L801" s="2"/>
     </row>
-    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>44550</v>
       </c>
@@ -18774,7 +18989,7 @@
       <c r="K802" s="2"/>
       <c r="L802" s="2"/>
     </row>
-    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>44550</v>
       </c>
@@ -18796,7 +19011,7 @@
       <c r="K803" s="2"/>
       <c r="L803" s="2"/>
     </row>
-    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>44550</v>
       </c>
@@ -18818,7 +19033,7 @@
       <c r="K804" s="2"/>
       <c r="L804" s="2"/>
     </row>
-    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>44557</v>
       </c>
@@ -18840,7 +19055,7 @@
       <c r="K805" s="2"/>
       <c r="L805" s="2"/>
     </row>
-    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>44557</v>
       </c>
@@ -18862,7 +19077,7 @@
       <c r="K806" s="2"/>
       <c r="L806" s="2"/>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>44557</v>
       </c>
@@ -18886,5 +19101,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/biorefineries/wwt/data/RIN_D3_price.xlsx
+++ b/biorefineries/wwt/data/RIN_D3_price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yalin\Documents\Coding\Bioindustrial-Park\biorefineries\wwt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77DD83-47E1-4C3D-90B5-EB9DA457AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E36FD-012F-41E6-818C-BEB94711BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2400" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38430" yWindow="1305" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RIN_D3_price" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>tc={51D4FABD-9F00-441A-836A-98AE0684D1E7}</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{51D4FABD-9F00-441A-836A-98AE0684D1E7}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{51D4FABD-9F00-441A-836A-98AE0684D1E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="44">
   <si>
     <t>Transfer Date by Week</t>
   </si>
@@ -132,6 +132,57 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>$/gal-to-$/mcf</t>
+  </si>
+  <si>
+    <t>btu</t>
+  </si>
+  <si>
+    <t>MJ=</t>
+  </si>
+  <si>
+    <t>1 kg=</t>
+  </si>
+  <si>
+    <t>1 mcf=</t>
+  </si>
+  <si>
+    <t>scf=</t>
+  </si>
+  <si>
+    <t>mcf</t>
+  </si>
+  <si>
+    <t>LHV of LNG</t>
+  </si>
+  <si>
+    <t>1 btu=</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>MJ/kg=</t>
+  </si>
+  <si>
+    <t>btu/kg</t>
+  </si>
+  <si>
+    <t>LHV of ethanol</t>
+  </si>
+  <si>
+    <t>1 kg LNG=</t>
+  </si>
+  <si>
+    <t>gal ethanol</t>
+  </si>
+  <si>
+    <t>1 mcf LNG=</t>
+  </si>
+  <si>
+    <t>btu/gal</t>
   </si>
 </sst>
 </file>
@@ -459,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -654,6 +705,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -699,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -709,11 +797,31 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,7 +1183,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M3" dT="2023-01-28T19:25:56.05" personId="{584F5FDF-96FF-4D00-8D77-0B152281502D}" id="{51D4FABD-9F00-441A-836A-98AE0684D1E7}">
+  <threadedComment ref="L3" dT="2023-01-28T19:25:56.05" personId="{584F5FDF-96FF-4D00-8D77-0B152281502D}" id="{51D4FABD-9F00-441A-836A-98AE0684D1E7}">
     <text>0.599 gal/kg*1/0.04544 kg/mcf</text>
   </threadedComment>
 </ThreadedComments>
@@ -1083,15 +1191,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N807"/>
+  <dimension ref="A1:T807"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1226,7 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="13">
         <f>AVERAGE(F:F)</f>
         <v>1.8429900744416856</v>
       </c>
@@ -1121,7 +1234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42009</v>
       </c>
@@ -1143,14 +1256,14 @@
       <c r="G2" s="3">
         <v>-0.25</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="13">
         <v>1.382242556</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42030</v>
       </c>
@@ -1172,7 +1285,7 @@
       <c r="G3" s="3">
         <v>0.25</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="13">
         <v>2.3037375930000001</v>
       </c>
       <c r="K3" t="s">
@@ -1182,10 +1295,24 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30">
+        <v>77000</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42051</v>
       </c>
@@ -1212,18 +1339,38 @@
         <v>0.90329268292682918</v>
       </c>
       <c r="L4" s="2">
+        <f>K4*$S$13</f>
+        <v>11.531645549572378</v>
+      </c>
+      <c r="M4" s="2">
         <v>4.26</v>
       </c>
-      <c r="M4" s="2">
-        <f>K4*0.599*1/0.04544</f>
-        <v>11.907401344039846</v>
-      </c>
-      <c r="N4" s="4">
-        <f>M4/L4</f>
-        <v>2.7951646347511376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N4" s="2">
+        <f>M4/$S$13</f>
+        <v>0.33369277721261442</v>
+      </c>
+      <c r="O4" s="4">
+        <f>L4/M4</f>
+        <v>2.7069590491953939</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>47.13</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="15">
+        <f>Q4*947</f>
+        <v>44632.11</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42058</v>
       </c>
@@ -1245,7 +1392,7 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0)</f>
         <v>0.46</v>
       </c>
@@ -1257,18 +1404,38 @@
         <v>1.5460839160839162</v>
       </c>
       <c r="L5" s="2">
+        <f>K5*$S$13</f>
+        <v>19.737668694941423</v>
+      </c>
+      <c r="M5" s="2">
         <v>3.71</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M10" si="0">K5*0.599*1/0.04544</f>
-        <v>20.380815707180144</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5:N10" si="1">M5/L5</f>
-        <v>5.4934813226900658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N5" s="2">
+        <f>M5/$S$13</f>
+        <v>0.29061037639877924</v>
+      </c>
+      <c r="O5" s="4">
+        <f>L5/M5</f>
+        <v>5.3201263328683082</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1000</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="20">
+        <f>983*1000</f>
+        <v>983000</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42065</v>
       </c>
@@ -1290,7 +1457,7 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0.05)</f>
         <v>0.77</v>
       </c>
@@ -1302,18 +1469,34 @@
         <v>2.4574782608695638</v>
       </c>
       <c r="L6" s="2">
+        <f>K6*$S$13</f>
+        <v>31.372741953698455</v>
+      </c>
+      <c r="M6" s="2">
         <v>4.16</v>
       </c>
-      <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>32.395014926515593</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="1"/>
-        <v>7.7872632034893252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N6" s="2">
+        <f>M6/$S$13</f>
+        <v>0.32585961342828079</v>
+      </c>
+      <c r="O6" s="4">
+        <f>L6/M6</f>
+        <v>7.5415245081005899</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="20">
+        <f>S4/S5</f>
+        <v>4.5403977619532049E-2</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42065</v>
       </c>
@@ -1335,7 +1518,7 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0.1)</f>
         <v>0.89500000000000002</v>
       </c>
@@ -1347,18 +1530,32 @@
         <v>2.3452586206896546</v>
       </c>
       <c r="L7" s="2">
+        <f>K7*$S$13</f>
+        <v>29.940119793999095</v>
+      </c>
+      <c r="M7" s="2">
         <v>4.2300000000000004</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>30.915711131010191</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="1"/>
-        <v>7.3086787543759311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N7" s="2">
+        <f>M7/$S$13</f>
+        <v>0.33134282807731441</v>
+      </c>
+      <c r="O7" s="4">
+        <f>L7/M7</f>
+        <v>7.0780425044915107</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="25">
+        <f>0.599*1/Q6</f>
+        <v>13.192676752230623</v>
+      </c>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42065</v>
       </c>
@@ -1380,7 +1577,7 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0.25)</f>
         <v>1.25</v>
       </c>
@@ -1392,18 +1589,33 @@
         <v>1.3361458333333334</v>
       </c>
       <c r="L8" s="2">
+        <f>K8*$S$13</f>
+        <v>17.057550054112554</v>
+      </c>
+      <c r="M8" s="2">
         <v>3.81</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>17.613366068808684</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="1"/>
-        <v>4.6229307267214397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N8" s="2">
+        <f>M8/$S$13</f>
+        <v>0.29844354018311292</v>
+      </c>
+      <c r="O8" s="4">
+        <f>L8/M8</f>
+        <v>4.477047258297258</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>1.0549999999999999E-3</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42072</v>
       </c>
@@ -1425,7 +1637,7 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0.5)</f>
         <v>1.8</v>
       </c>
@@ -1437,18 +1649,38 @@
         <v>1.3196799999999997</v>
       </c>
       <c r="L9" s="2">
+        <f>K9*$S$13</f>
+        <v>16.847343376623375</v>
+      </c>
+      <c r="M9" s="2">
         <v>3.43</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>17.396309859154925</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0718104545641181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9" s="2">
+        <f>M9/$S$13</f>
+        <v>0.26867751780264498</v>
+      </c>
+      <c r="O9" s="4">
+        <f>L9/M9</f>
+        <v>4.9117619173829077</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>48.62</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="20">
+        <f>Q9/Q8</f>
+        <v>46085.30805687204</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42072</v>
       </c>
@@ -1470,7 +1702,7 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0.75)</f>
         <v>2.4500000000000002</v>
       </c>
@@ -1482,18 +1714,34 @@
         <v>2.6542635658914735</v>
       </c>
       <c r="L10" s="2">
+        <f>K10*$S$13</f>
+        <v>33.884949159367771</v>
+      </c>
+      <c r="M10" s="2">
         <v>6.02</v>
       </c>
-      <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>34.989081777486632</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="1"/>
-        <v>5.8121398301472817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N10" s="2">
+        <f>M10/$S$13</f>
+        <v>0.47155645981688704</v>
+      </c>
+      <c r="O10" s="4">
+        <f>L10/M10</f>
+        <v>5.6287290962404937</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20">
+        <f>S9/S3</f>
+        <v>0.5985104942450914</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42086</v>
       </c>
@@ -1515,7 +1763,7 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0.9)</f>
         <v>2.77</v>
       </c>
@@ -1527,19 +1775,33 @@
         <v>1.7946004113992531</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L11:N11" si="2">AVERAGE(L4:L10)</f>
+        <f>AVERAGE(L4:L10)</f>
+        <v>22.910288368902147</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" ref="M11:O11" si="0">AVERAGE(M4:M10)</f>
         <v>4.2314285714285713</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="2"/>
-        <v>23.656814402028004</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" si="2"/>
-        <v>5.5559241323913282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N11" s="6">
+        <f t="shared" ref="N11" si="1">AVERAGE(N4:N10)</f>
+        <v>0.33145473041709056</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3805986666537802</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="25">
+        <f>0.599*1/(S9/S5)</f>
+        <v>12.776674928013161</v>
+      </c>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42086</v>
       </c>
@@ -1561,31 +1823,51 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 0.95)</f>
         <v>2.95</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="2">
         <f>MIN(K4:K10)</f>
         <v>0.90329268292682918</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="2">
         <f>MIN(L4:L10)</f>
+        <v>11.531645549572378</v>
+      </c>
+      <c r="M12" s="2">
+        <f>MIN(M4:M10)</f>
         <v>3.43</v>
       </c>
-      <c r="M12" s="9">
-        <f>MIN(M4:M10)</f>
-        <v>11.907401344039846</v>
-      </c>
-      <c r="N12" s="10">
+      <c r="N12" s="2">
         <f>MIN(N4:N10)</f>
-        <v>2.7951646347511376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.26867751780264498</v>
+      </c>
+      <c r="O12" s="9">
+        <f>MIN(O4:O10)</f>
+        <v>2.7069590491953939</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="16">
+        <f>983*1000</f>
+        <v>983000</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42093</v>
       </c>
@@ -1607,31 +1889,47 @@
       <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="13">
         <f>_xlfn.PERCENTILE.INC(F:F, 1)</f>
         <v>3.46</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <f>MAX(K4:K10)</f>
         <v>2.6542635658914735</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <f>MAX(L4:L10)</f>
+        <v>33.884949159367771</v>
+      </c>
+      <c r="M13" s="11">
+        <f>MAX(M4:M10)</f>
         <v>6.02</v>
       </c>
-      <c r="M13" s="12">
-        <f>MAX(M4:M10)</f>
-        <v>34.989081777486632</v>
-      </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <f>MAX(N4:N10)</f>
-        <v>7.7872632034893252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>0.47155645981688704</v>
+      </c>
+      <c r="O13" s="12">
+        <f>MAX(O4:O10)</f>
+        <v>7.5415245081005899</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="33">
+        <f>S12/S3</f>
+        <v>12.766233766233766</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42093</v>
       </c>
@@ -1653,7 +1951,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42100</v>
       </c>
@@ -1675,7 +1973,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42107</v>
       </c>
@@ -6315,7 +6613,7 @@
         <v>2.4</v>
       </c>
       <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
+      <c r="L226" s="13"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
@@ -6337,7 +6635,7 @@
         <v>2.17</v>
       </c>
       <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
+      <c r="L227" s="13"/>
     </row>
     <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
@@ -8844,8 +9142,6 @@
       <c r="F341" s="2">
         <v>2.69</v>
       </c>
-      <c r="K341" s="2"/>
-      <c r="L341" s="2"/>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
@@ -8866,8 +9162,6 @@
       <c r="F342" s="2">
         <v>2.8</v>
       </c>
-      <c r="K342" s="2"/>
-      <c r="L342" s="2"/>
     </row>
     <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
@@ -11396,8 +11690,6 @@
       <c r="F457" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K457" s="2"/>
-      <c r="L457" s="2"/>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
@@ -13508,8 +13800,6 @@
       <c r="F553" s="2">
         <v>0.8</v>
       </c>
-      <c r="K553" s="2"/>
-      <c r="L553" s="2"/>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
@@ -13530,8 +13820,6 @@
       <c r="F554" s="2">
         <v>0.81</v>
       </c>
-      <c r="K554" s="2"/>
-      <c r="L554" s="2"/>
     </row>
     <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
@@ -16258,8 +16546,6 @@
       <c r="F678" s="2">
         <v>1.94</v>
       </c>
-      <c r="K678" s="2"/>
-      <c r="L678" s="2"/>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
@@ -16280,8 +16566,6 @@
       <c r="F679" s="2">
         <v>1.92</v>
       </c>
-      <c r="K679" s="2"/>
-      <c r="L679" s="2"/>
     </row>
     <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
